--- a/Springboot-Creds.xlsx
+++ b/Springboot-Creds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Training\ANZ\Springboot\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626FA532-EFFE-4988-AF41-F60113D075F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B6FCC2-1C74-480B-8D12-6882B597B6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{21DF4D94-4FF0-4798-B4B4-D771B26CE443}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10590" xr2:uid="{21DF4D94-4FF0-4798-B4B4-D771B26CE443}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -648,17 +648,17 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="36.7265625" customWidth="1"/>
-    <col min="3" max="3" width="55.7265625" customWidth="1"/>
-    <col min="4" max="4" width="30.1796875" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="55.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="16" thickBot="1">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="16.5" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>33</v>
       </c>
@@ -672,7 +672,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -691,7 +691,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -710,7 +710,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -729,7 +729,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -748,7 +748,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1">
+    <row r="6" spans="1:9" ht="15.75" thickBot="1">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -767,7 +767,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -786,7 +786,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -805,7 +805,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -824,7 +824,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -843,7 +843,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1">
+    <row r="11" spans="1:9" ht="15.75" thickBot="1">
       <c r="A11" s="6">
         <v>10</v>
       </c>
